--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/19.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/19.xlsx
@@ -479,13 +479,13 @@
         <v>-19.0203372199719</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.772094371549551</v>
+        <v>-8.931584804767457</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.922257077323717</v>
+        <v>-2.90141413119969</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.335548167836242</v>
+        <v>-5.463708720353899</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.5799172201341</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.034136812926699</v>
+        <v>-9.206719548986332</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.981604486105262</v>
+        <v>-2.938138040670731</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.255986243467072</v>
+        <v>-5.391517762484621</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.1032450203215</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.858271092207671</v>
+        <v>-10.03034322845648</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.855761271190591</v>
+        <v>-2.809427611433722</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.121855600853589</v>
+        <v>-5.258814180880885</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.61632251551077</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.63347943576911</v>
+        <v>-10.79880903605443</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.783491759504263</v>
+        <v>-2.733361331923294</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.345537594904479</v>
+        <v>-5.481645175247063</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-17.13324444054058</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.41939728305509</v>
+        <v>-11.59267391116533</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.632066184836859</v>
+        <v>-2.580901465331394</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.896379961313382</v>
+        <v>-5.027525558878953</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.6708471636183</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.10021012312768</v>
+        <v>-12.27775484196433</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.617337344139917</v>
+        <v>-2.564588455990603</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.008279873701615</v>
+        <v>-5.131046397448481</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.24352898030216</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.61496019395583</v>
+        <v>-12.80115892497086</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.493313959320246</v>
+        <v>-2.440957840256184</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.566152806736526</v>
+        <v>-4.675931766064399</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.86637918583516</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.57285853137072</v>
+        <v>-13.76488333715031</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.23196540999371</v>
+        <v>-2.18607688853346</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.475658809494515</v>
+        <v>-4.568378498219619</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.54831022968429</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.3267133289973</v>
+        <v>-14.52546757843755</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.206749634720546</v>
+        <v>-2.169174725564792</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.06678619174741</v>
+        <v>-4.160671095425428</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.29483530453353</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.00369012433727</v>
+        <v>-15.19447116134691</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.042310311028467</v>
+        <v>-2.004853232598288</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.859024437952059</v>
+        <v>-3.944805206171048</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.1062126225889</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.64720299361379</v>
+        <v>-15.84370536696526</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.052915076330265</v>
+        <v>-2.028877608312856</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.353517532930174</v>
+        <v>-3.435082579634127</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.97454139345006</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.60553337702246</v>
+        <v>-16.80756070217313</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.868523083107395</v>
+        <v>-1.838685724931101</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.710318878921856</v>
+        <v>-2.7953010166675</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.89616916969895</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.23371515967132</v>
+        <v>-17.42494133497757</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.61506919239442</v>
+        <v>-1.583123973460608</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.329895835249821</v>
+        <v>-2.428939106247479</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.85970405476168</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.13035461208977</v>
+        <v>-18.32317804834271</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.46412803293216</v>
+        <v>-1.437982704157233</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.761663707313227</v>
+        <v>-1.863718207964481</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.85196260314883</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.02427086551714</v>
+        <v>-19.21714667098145</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.307308429493965</v>
+        <v>-1.279212347595621</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.357478133983459</v>
+        <v>-1.452986483213851</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.85918946761745</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.81357961923912</v>
+        <v>-20.01099845378951</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.069512932979695</v>
+        <v>-1.049625724963113</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.840319079432438</v>
+        <v>-0.9402526270233331</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.86837894982972</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.77170052580232</v>
+        <v>-20.9695252217408</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9803150737190149</v>
+        <v>-0.9666859864607781</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4726348464254032</v>
+        <v>-0.5735503167294277</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.86841744005733</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.60642647808225</v>
+        <v>-21.80553421969922</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8253022080729783</v>
+        <v>-0.8184418413839137</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1025547219983324</v>
+        <v>-0.2006029779800189</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.85054985076573</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.2450559183988</v>
+        <v>-22.44542052108858</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5725160248049314</v>
+        <v>-0.5701594102934207</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2815210741665435</v>
+        <v>0.172959699002951</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-14.80850663524447</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.8733424394704</v>
+        <v>-23.06926875149683</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2717465516219584</v>
+        <v>-0.2754385810233251</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6157544734129684</v>
+        <v>0.5136868804588719</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-14.73681958390031</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.51050554186868</v>
+        <v>-23.70912886828051</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.03389868589632087</v>
+        <v>-0.05518677031696746</v>
       </c>
       <c r="G22" t="n">
-        <v>0.610897229058688</v>
+        <v>0.5412330856378635</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-14.63716756825845</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.99996128360661</v>
+        <v>-24.18553158408523</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06930793740500572</v>
+        <v>0.04259963960788455</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8813580211630652</v>
+        <v>0.8016520814626368</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-14.51069777856974</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.36472593307994</v>
+        <v>-24.55624013904871</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04593817683252469</v>
+        <v>0.01828723323079924</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8187244443682477</v>
+        <v>0.7534985916107684</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-14.35960911325869</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.6499286581841</v>
+        <v>-24.84067041828521</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3299364100752465</v>
+        <v>0.3069201416794922</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7928671462558387</v>
+        <v>0.7281911702177118</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-14.18659311104872</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.66062506960579</v>
+        <v>-24.84687616983219</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3435654973334834</v>
+        <v>0.3153123078010385</v>
       </c>
       <c r="G26" t="n">
-        <v>0.653434120991456</v>
+        <v>0.5880511605998761</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.99251818878793</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.59716667773194</v>
+        <v>-24.79842155701495</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1579166430378078</v>
+        <v>0.1229994713589243</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6210175791553423</v>
+        <v>0.5689233061481143</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-13.78059942755857</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.71099115863791</v>
+        <v>-24.89063064592923</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2929768391530539</v>
+        <v>0.2688739096214362</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3199600753098513</v>
+        <v>0.2685858789589182</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-13.55425852945969</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.73902177902205</v>
+        <v>-24.93315444555916</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2696987247004649</v>
+        <v>0.2410789506884518</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2035695030469065</v>
+        <v>0.1619621646159011</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-13.31518403037693</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.53700754617421</v>
+        <v>-24.72465952280467</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1179589347648598</v>
+        <v>0.09235039040644361</v>
       </c>
       <c r="G30" t="n">
-        <v>0.008140698528461535</v>
+        <v>-0.02652771939642909</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-13.06494172848006</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.05949198462794</v>
+        <v>-24.25463275848387</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1237064557123775</v>
+        <v>0.09862160346763039</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.4821398582884963</v>
+        <v>-0.5228831047319478</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.80536096661463</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.11339299542732</v>
+        <v>-24.302681509913</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1736928679620877</v>
+        <v>0.1496423076418369</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.5910547256288154</v>
+        <v>-0.6395617076574105</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.53852311469599</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.71473237389677</v>
+        <v>-23.90801404074917</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1035443093361194</v>
+        <v>0.08171944049896204</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.082133912919119</v>
+        <v>-1.139556753182929</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.26688571929663</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.14606819996639</v>
+        <v>-23.32447701079059</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.03964620684383861</v>
+        <v>-0.04604834293344266</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.163960805679906</v>
+        <v>-1.217364308971307</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.99315061959479</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.78562401043083</v>
+        <v>-22.96437322112892</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.237876764170413</v>
+        <v>-0.2432053314269955</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.206680989852459</v>
+        <v>-1.282629438637312</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.71846454256617</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.06963215262252</v>
+        <v>-22.23250039997359</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3559431511970987</v>
+        <v>-0.3583259503142928</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.418134773049176</v>
+        <v>-1.478411735332483</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.4464537469823</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.27221926344151</v>
+        <v>-21.43466855710165</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.292026528723792</v>
+        <v>-0.2965826501127127</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.534734822157589</v>
+        <v>-1.602461304757838</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.18084043299429</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.90130123163257</v>
+        <v>-21.06062146491353</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.368118992839904</v>
+        <v>-0.3752935747971698</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.789484850851895</v>
+        <v>-1.858769317490309</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.92466096923625</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.24570416683313</v>
+        <v>-20.40569210755903</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.206717083407105</v>
+        <v>-0.2212626318642626</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.946094977444622</v>
+        <v>-2.020616365219726</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.68088165702687</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.91958799534858</v>
+        <v>-20.06598612572476</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4807258895815898</v>
+        <v>-0.4864865028319493</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.166215865122562</v>
+        <v>-2.238799592077092</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.45158289779922</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.40007232628605</v>
+        <v>-19.52386004965457</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.1958504720484723</v>
+        <v>-0.2052376531859899</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.011792153104403</v>
+        <v>-2.093317922899832</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.23712694720113</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.81002842181514</v>
+        <v>-18.95244649212743</v>
       </c>
       <c r="F42" t="n">
-        <v>0.04102856326687742</v>
+        <v>0.02894436774396426</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.021218611150446</v>
+        <v>-2.128182725367348</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.0417624880775</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.91594196845082</v>
+        <v>-18.05927649996204</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05071686736975471</v>
+        <v>0.04109402478108605</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.909619821727573</v>
+        <v>-2.033394452793251</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.866247200783437</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.57174532674184</v>
+        <v>-17.71670330380543</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07978177967838658</v>
+        <v>0.07417827406212782</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.102914580882817</v>
+        <v>-2.224777735733603</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.710689217179262</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.0331803570446</v>
+        <v>-17.17366076653632</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04841262206961092</v>
+        <v>0.04536211550748875</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.157182176161771</v>
+        <v>-2.281833991517845</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.574270615750777</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.63152159816329</v>
+        <v>-16.75087103086846</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08695636163565247</v>
+        <v>0.0888285609420193</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.100125920377529</v>
+        <v>-2.203790774278316</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.455441272810864</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.0022662466814</v>
+        <v>-16.12028026449672</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09928931091255842</v>
+        <v>0.103609770850328</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.406511991479602</v>
+        <v>-2.528427515541756</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.352397755299995</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.34619785897967</v>
+        <v>-15.46017944751974</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08860599179370995</v>
+        <v>0.09434042043838597</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.336088494493958</v>
+        <v>-2.450803251993162</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.263157731891004</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.80263162959689</v>
+        <v>-14.90370420753501</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2197777739649634</v>
+        <v>0.2190184204001433</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.543536033021108</v>
+        <v>-2.671238354939304</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.185266968635741</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.13250210864314</v>
+        <v>-14.22642628922968</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3705225488845974</v>
+        <v>0.3617507059806409</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.491127544745678</v>
+        <v>-2.63298264603578</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.115890816925175</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.34916344501698</v>
+        <v>-13.4296811074936</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3551260007427275</v>
+        <v>0.3539738780926556</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.55918133491697</v>
+        <v>-2.711876862960021</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.054982981645594</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.74110453183586</v>
+        <v>-12.82352057822452</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4427396913595584</v>
+        <v>0.4373194779830838</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.564287333025243</v>
+        <v>-2.705841311349985</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.001561763852303</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.11271327234153</v>
+        <v>-12.19202644295671</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4956325948401317</v>
+        <v>0.4905135044290168</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.596127813536321</v>
+        <v>-2.743481682019948</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.954852516444092</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.72690929220155</v>
+        <v>-11.81077858420565</v>
       </c>
       <c r="F54" t="n">
-        <v>0.391954648636503</v>
+        <v>0.3906585106551721</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.696755253177828</v>
+        <v>-2.856337332515626</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.914476092089044</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.26854776971272</v>
+        <v>-11.32419005679006</v>
       </c>
       <c r="F55" t="n">
-        <v>0.131090514515111</v>
+        <v>0.1408704647378804</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.177255859772016</v>
+        <v>-3.339155276712801</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.878649451420735</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.85538087663353</v>
+        <v>-10.91328813210248</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2200134354161145</v>
+        <v>0.2152216525760428</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.250664401805574</v>
+        <v>-3.420078800577509</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.848548742707692</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.09099986752219</v>
+        <v>-10.14816086172917</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1797546041778068</v>
+        <v>0.1707863767312245</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.603069917396315</v>
+        <v>-3.784594696296847</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.82461142706846</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.79068862493868</v>
+        <v>-9.849800372269074</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0004424244575266067</v>
+        <v>-0.0007096981925452873</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.633378598474911</v>
+        <v>-3.806471934345371</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.806488386830344</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.222862358390179</v>
+        <v>-9.27542795429971</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08895948397043656</v>
+        <v>0.07385096649108468</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.913396771653748</v>
+        <v>-4.092355459197301</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.793871162333977</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.888288559269869</v>
+        <v>-8.940553032214041</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.04849660356484543</v>
+        <v>-0.05468926280898187</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.838482614793391</v>
+        <v>-4.012256750411622</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.786224897031197</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.353991680299028</v>
+        <v>-8.403218738983918</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.07197110256006027</v>
+        <v>-0.07926351524290169</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.240848358028158</v>
+        <v>-4.412449171374662</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.783047366122974</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.867141306826603</v>
+        <v>-7.918633333903112</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.02550651977477446</v>
+        <v>-0.03955456072394653</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.203587664140606</v>
+        <v>-4.388333149540203</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.783549468301056</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.386444315689789</v>
+        <v>-7.450190738226153</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.05353714015890997</v>
+        <v>-0.05660073902387387</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.203626941049131</v>
+        <v>-4.382716551621102</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.786747630859159</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.058154821933508</v>
+        <v>-7.118196122765664</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2221398161546583</v>
+        <v>-0.2222052776688669</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.432388748602611</v>
+        <v>-4.596134180244078</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.789727810598025</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.67042627327579</v>
+        <v>-6.737537417642478</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1763560331171422</v>
+        <v>-0.1735542803090128</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.705808401149218</v>
+        <v>-4.863151696701082</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.792426881963431</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.419459920102743</v>
+        <v>-6.487775556330869</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2838831163562384</v>
+        <v>-0.278881856670699</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.68686383893724</v>
+        <v>-4.840750766538888</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.79388875317216</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.271032482786095</v>
+        <v>-6.33743664279933</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3456002319521351</v>
+        <v>-0.3494493689876026</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.781180788609035</v>
+        <v>-4.934766593245324</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.793042335874352</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.997416445696862</v>
+        <v>-6.062943421419701</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3099237067084316</v>
+        <v>-0.3106961525760934</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.796524967539538</v>
+        <v>-4.944101405171474</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.788977736972724</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.857865589706903</v>
+        <v>-5.92724170246521</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5601830755280254</v>
+        <v>-0.5653807197561906</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.878037645032125</v>
+        <v>-5.014629640579852</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.780567345518332</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.648310190422236</v>
+        <v>-5.729194437378419</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5133911851716964</v>
+        <v>-0.517279599115689</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.723181887020188</v>
+        <v>-4.855898560926765</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.766743822292408</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.527926465792564</v>
+        <v>-5.615003371992885</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5902299105497867</v>
+        <v>-0.5903215566696788</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.690673699064183</v>
+        <v>-4.813099822937163</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.74866729655975</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.532809894752528</v>
+        <v>-5.625516491174791</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7001005159975519</v>
+        <v>-0.703007007228415</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.583303723459188</v>
+        <v>-4.68936446878001</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.72593838696146</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.575739555770548</v>
+        <v>-5.673002273581731</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7365233025032337</v>
+        <v>-0.7347296570139173</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.379312552882253</v>
+        <v>-4.48903914299876</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.698230763959309</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.818745788815826</v>
+        <v>-5.911426200632405</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6307113109364036</v>
+        <v>-0.6246364824178428</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.254451260680712</v>
+        <v>-4.352015101457255</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.665290980112754</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.030539971886428</v>
+        <v>-6.122447937835346</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9634783722645551</v>
+        <v>-0.9684272627387276</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.080245079068705</v>
+        <v>-4.181972272148916</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.627079122436715</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.534567446687198</v>
+        <v>-6.614260294084785</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8906066146475079</v>
+        <v>-0.8913397836066446</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.917494662443208</v>
+        <v>-4.011471212241117</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.583934373226322</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.990716369995776</v>
+        <v>-7.068602479601205</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9514334536501672</v>
+        <v>-0.9504777155427212</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.842973274668103</v>
+        <v>-3.931568887998063</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.536422979087193</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.563805742286652</v>
+        <v>-7.649900725773843</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.010571385586244</v>
+        <v>-1.009170509182179</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.464959214718947</v>
+        <v>-3.56010097946977</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.484421077470746</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.984697094042462</v>
+        <v>-8.071891830968356</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9744497220459216</v>
+        <v>-0.974331891320346</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.263665058527408</v>
+        <v>-3.373142894889921</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.428241347891525</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.459842948774384</v>
+        <v>-8.542887425699453</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.177026923915949</v>
+        <v>-1.177799369783611</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.88935612028246</v>
+        <v>-3.001151294247959</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.369563712489184</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.388087220252762</v>
+        <v>-9.455316195345025</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.098093430083183</v>
+        <v>-1.100895182891312</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.878410955106777</v>
+        <v>-2.995102650335081</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.309165906031609</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.1914701995296</v>
+        <v>-10.24796348629165</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.19053818044861</v>
+        <v>-1.190656011174186</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.689619948129087</v>
+        <v>-2.801807891179838</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.247552853697313</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02321110676161</v>
+        <v>-11.06902107440481</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.289921851320153</v>
+        <v>-1.299269755549145</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.328193835880397</v>
+        <v>-2.443537023916004</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.185163632478266</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.22932641375279</v>
+        <v>-12.27003038328771</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.375021819791372</v>
+        <v>-1.381162109824142</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.200949744561661</v>
+        <v>-2.306133305592089</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.120606841791876</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.10369585903746</v>
+        <v>-13.14680881229527</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.46526706327939</v>
+        <v>-1.467034524163023</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.861309224241604</v>
+        <v>-1.970616860667175</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.055375666010178</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.29163904968432</v>
+        <v>-14.31881867038374</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653233255178051</v>
+        <v>-1.649724518016469</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.614506223372226</v>
+        <v>-1.721836922068696</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.9892325524704</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.37620541709291</v>
+        <v>-15.39475721021963</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.705091866734128</v>
+        <v>-1.701046345156035</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.201902299315229</v>
+        <v>-1.311079012712382</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.921186434360543</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.75939412001842</v>
+        <v>-16.77657122134677</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.702316298531682</v>
+        <v>-1.687273242566539</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.8830261713021484</v>
+        <v>-0.9913518850145899</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.84984264603186</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.43714654457994</v>
+        <v>-18.44121825076371</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.944000208989946</v>
+        <v>-1.928302537882716</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6780268934064017</v>
+        <v>-0.7918513743123682</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.773377594483425</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.03178903070217</v>
+        <v>-20.02691869404505</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.156475191808318</v>
+        <v>-2.137347337356556</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.374521128929508</v>
+        <v>-0.4913830240947549</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.689654977978986</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.85990655340091</v>
+        <v>-21.83534539326983</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.350555489134065</v>
+        <v>-2.328023635943455</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5192696291476314</v>
+        <v>-0.6341284019780942</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.596471533296026</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.56248198415033</v>
+        <v>-23.52778738161976</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.442044501392047</v>
+        <v>-2.422733354700501</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.3395515880392577</v>
+        <v>-0.4485973784079941</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.491585378590649</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.63138004841125</v>
+        <v>-25.60427898152888</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.624786864456859</v>
+        <v>-2.587225047603947</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.3405073261467036</v>
+        <v>-0.4444863953156921</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.371612473490086</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.86768938910932</v>
+        <v>-27.82904091112055</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.498681803485354</v>
+        <v>-2.46186624789442</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.466952786992094</v>
+        <v>-0.5683003032898956</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.236078049626126</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.15717966395049</v>
+        <v>-30.11317643409944</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.990481067431952</v>
+        <v>-2.940769593541918</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8314555904085895</v>
+        <v>-0.9250000942127222</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.083103399621042</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.33907739403834</v>
+        <v>-32.30334849958327</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.057945703975367</v>
+        <v>-3.009281614312671</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.071188747743435</v>
+        <v>-1.171069926122964</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.912123886201722</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.56233370880322</v>
+        <v>-34.52330555403203</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.425171706382941</v>
+        <v>-3.36137291463521</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.286753514032455</v>
+        <v>-1.372128420863351</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.721136951073446</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.08235325208149</v>
+        <v>-37.04150526721531</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.695619406184476</v>
+        <v>-3.627473969893292</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.698715915250208</v>
+        <v>-1.784810898737398</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.51078902691777</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.61666959006293</v>
+        <v>-39.56092256456286</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.625405386044299</v>
+        <v>-3.563557347419986</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.168363002788605</v>
+        <v>-2.244062697819465</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.27846612972345</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.18729088382447</v>
+        <v>-42.12599272191952</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.801248105511522</v>
+        <v>-3.738117021208719</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.51663135068136</v>
+        <v>-2.584763694669703</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.030835691427964</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.46535157828481</v>
+        <v>-44.41337513600316</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.06518893080072</v>
+        <v>-3.994254834004248</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.10181801079799</v>
+        <v>-3.157735236235002</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.76226596714338</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.80698849534457</v>
+        <v>-46.75583686814195</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.219481719790461</v>
+        <v>-4.14384748627381</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.413873049030531</v>
+        <v>-3.47780276380668</v>
       </c>
     </row>
   </sheetData>
